--- a/pc/public/excel_template/esw/pt.xlsx
+++ b/pc/public/excel_template/esw/pt.xlsx
@@ -33,7 +33,7 @@
     <t xml:space="preserve">&lt;%const data = _data_.data;%&gt;&lt;%const selectList = { };%&gt;&lt;%const comment = data.getFieldCommentsPt;%&gt;&lt;%=comment.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.pt_type_id_lbl%&gt;&lt;%selectList.pt_type_id = data.findAllPtType?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.pt_type_id &amp;&amp; selectList.pt_type_id.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.pt_type_id.join(",") }"` })%&gt;</t>
+    <t xml:space="preserve">&lt;%=comment.pt_type_ids_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=comment.price%&gt;</t>
@@ -48,18 +48,18 @@
     <t xml:space="preserve">&lt;%=comment.introduct%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.is_enabled_lbl%&gt;&lt;%selectList.is_enabled = data.getDict.find((item) =&gt; item[0]?.code === "is_enabled")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_enabled &amp;&amp; selectList.is_enabled.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_enabled.join(",") }"`, allowBlank: '0' })%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=comment.order_by%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.detail%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=comment.is_locked_lbl%&gt;&lt;%selectList.is_locked = data.getDict.find((item) =&gt; item[0]?.code === "is_locked")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_locked &amp;&amp; selectList.is_locked.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_locked.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.is_enabled_lbl%&gt;&lt;%selectList.is_enabled = data.getDict.find((item) =&gt; item[0]?.code === "is_enabled")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_enabled &amp;&amp; selectList.is_enabled.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_enabled.join(",") }"`, allowBlank: '0' })%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=comment.order_by%&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">&lt;%=comment.rem%&gt;</t>
   </si>
   <si>
@@ -78,7 +78,7 @@
     <t xml:space="preserve">&lt;%forRow model in data.findAllPt%&gt;&lt;%=model.lbl%&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;%=model.pt_type_id_lbl%&gt;</t>
+    <t xml:space="preserve">&lt;%=model.pt_type_ids_lbl%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.price%&gt;</t>
@@ -93,16 +93,16 @@
     <t xml:space="preserve">&lt;%=model.introduct%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.is_enabled_lbl%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=model.detail%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.is_locked_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%=model.is_enabled_lbl%&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;%~model.order_by%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.rem%&gt;</t>

--- a/pc/public/excel_template/esw/pt.xlsx
+++ b/pc/public/excel_template/esw/pt.xlsx
@@ -42,6 +42,9 @@
     <t xml:space="preserve">&lt;%=comment.original_price%&gt;</t>
   </si>
   <si>
+    <t xml:space="preserve">&lt;%=comment.unit%&gt;</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;%=comment.is_new_lbl%&gt;&lt;%selectList.is_new = data.getDict.find((item) =&gt; item[0]?.code === "yes_no")?.map((item) =&gt; item.lbl) || [ ]%&gt;&lt;%selectList.is_new &amp;&amp; selectList.is_new.length &gt; 0 &amp;&amp; _dataValidation_({ sqref: `${ _col }2:${ _col }${ _lastRow }`, formula1: `"${ selectList.is_new.join(",") }"`, allowBlank: '0' })%&gt;</t>
   </si>
   <si>
@@ -85,6 +88,9 @@
   </si>
   <si>
     <t xml:space="preserve">&lt;%~model.original_price%&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%=model.unit%&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;%=model.is_new_lbl%&gt;</t>
@@ -494,52 +500,58 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="P2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
